--- a/Result_files/V3_Bids_2021-09-20_2021-09-26.xlsx
+++ b/Result_files/V3_Bids_2021-09-20_2021-09-26.xlsx
@@ -560,7 +560,7 @@
         <v>51.656</v>
       </c>
       <c r="J2" t="n">
-        <v>4825.223736092283</v>
+        <v>4823.384418884661</v>
       </c>
       <c r="K2" t="n">
         <v>110.720001</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6755.634106441508</v>
+        <v>6755.634106441505</v>
       </c>
       <c r="K3" t="n">
         <v>112</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6559.119836555045</v>
+        <v>6559.119836555043</v>
       </c>
       <c r="K4" t="n">
         <v>108.519997</v>
@@ -840,7 +840,7 @@
         <v>51.413</v>
       </c>
       <c r="J7" t="n">
-        <v>4631.913433388991</v>
+        <v>4590.667957011349</v>
       </c>
       <c r="K7" t="n">
         <v>110.82</v>
@@ -881,22 +881,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F8" t="n">
-        <v>7.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>44.77299999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>42.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I8" t="n">
         <v>45.9489999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>-2322.064776079999</v>
+        <v>-2098.838070496734</v>
       </c>
       <c r="K8" t="n">
         <v>141.960007</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.77299999999997</v>
+        <v>47.667</v>
       </c>
       <c r="H9" t="n">
         <v>49.8</v>
@@ -952,7 +952,7 @@
         <v>45.9489999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>-8239.18562343474</v>
+        <v>-3797.594696969358</v>
       </c>
       <c r="K9" t="n">
         <v>160.869995</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.19000000000003</v>
+        <v>44.167</v>
       </c>
       <c r="H10" t="n">
         <v>49.8</v>
@@ -1008,7 +1008,7 @@
         <v>42.74399999999997</v>
       </c>
       <c r="J10" t="n">
-        <v>-13055.32079201891</v>
+        <v>-5466.213348533415</v>
       </c>
       <c r="K10" t="n">
         <v>164.440002</v>
@@ -1049,22 +1049,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F11" t="n">
-        <v>49.8</v>
+        <v>44.7</v>
       </c>
       <c r="G11" t="n">
         <v>40.1459999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>43.173</v>
+        <v>39.95799999999991</v>
       </c>
       <c r="J11" t="n">
-        <v>-9990.229680449827</v>
+        <v>-2032.511575769999</v>
       </c>
       <c r="K11" t="n">
         <v>142.5</v>
@@ -1108,19 +1108,19 @@
         <v>0.18</v>
       </c>
       <c r="F12" t="n">
-        <v>49.8</v>
+        <v>31.1</v>
       </c>
       <c r="G12" t="n">
         <v>40.1459999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="I12" t="n">
-        <v>43.173</v>
+        <v>39.95799999999991</v>
       </c>
       <c r="J12" t="n">
-        <v>-10294.80221993067</v>
+        <v>-2026.890531209999</v>
       </c>
       <c r="K12" t="n">
         <v>134.509995</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-11098.84642602111</v>
+        <v>1300.518297690077</v>
       </c>
       <c r="K13" t="n">
         <v>120.40001</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>49.8</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-7910.898282581294</v>
+        <v>-1264.467615181717</v>
       </c>
       <c r="K14" t="n">
         <v>108.629997</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>42.751</v>
       </c>
       <c r="J15" t="n">
-        <v>-3679.705276971701</v>
+        <v>2225.75282347616</v>
       </c>
       <c r="K15" t="n">
         <v>108.730003</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>42.751</v>
       </c>
       <c r="J16" t="n">
-        <v>-3815.950557851458</v>
+        <v>248.3912807373201</v>
       </c>
       <c r="K16" t="n">
         <v>108.279999</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F17" t="n">
         <v>49.8</v>
@@ -1400,7 +1400,7 @@
         <v>42.751</v>
       </c>
       <c r="J17" t="n">
-        <v>-4330.918521815058</v>
+        <v>1920.340576265153</v>
       </c>
       <c r="K17" t="n">
         <v>107.980003</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F18" t="n">
         <v>49.8</v>
@@ -1456,7 +1456,7 @@
         <v>42.846</v>
       </c>
       <c r="J18" t="n">
-        <v>1965.836597072969</v>
+        <v>3992.888209026374</v>
       </c>
       <c r="K18" t="n">
         <v>113.7</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F19" t="n">
-        <v>1.100000000000023</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>39.91499999999991</v>
       </c>
       <c r="H19" t="n">
-        <v>48.69999999999998</v>
+        <v>49.8</v>
       </c>
       <c r="I19" t="n">
         <v>40.24399999999997</v>
       </c>
       <c r="J19" t="n">
-        <v>-2023.645312989999</v>
+        <v>-957.2830010178573</v>
       </c>
       <c r="K19" t="n">
         <v>135.830002</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>41.86500000000002</v>
+        <v>41.865</v>
       </c>
       <c r="H20" t="n">
         <v>49.8</v>
@@ -1568,7 +1568,7 @@
         <v>40.24399999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>-835.1629002653688</v>
+        <v>-822.6533997526877</v>
       </c>
       <c r="K20" t="n">
         <v>145.899994</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>45.57700000000001</v>
+        <v>45.577</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.57700000000001</v>
+        <v>42.33599999999996</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.99500000000002</v>
+        <v>43.274</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1736,7 +1736,7 @@
         <v>43.2179999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-1023.138718195037</v>
+        <v>-1023.138718195035</v>
       </c>
       <c r="K23" t="n">
         <v>141.320007</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45.99500000000002</v>
+        <v>43.274</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1792,7 +1792,7 @@
         <v>43.2179999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-1120.06343061311</v>
+        <v>-1120.063430613111</v>
       </c>
       <c r="K24" t="n">
         <v>126.5</v>
@@ -1848,7 +1848,7 @@
         <v>48.76</v>
       </c>
       <c r="J25" t="n">
-        <v>4961.3805325162</v>
+        <v>4959.54651185285</v>
       </c>
       <c r="K25" t="n">
         <v>109.99998</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45.94900000000002</v>
+        <v>45.949</v>
       </c>
       <c r="J31" t="n">
-        <v>4570.587965643553</v>
+        <v>4373.583494429326</v>
       </c>
       <c r="K31" t="n">
         <v>95.800003</v>
@@ -2228,19 +2228,19 @@
         <v>0.18</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="G32" t="n">
-        <v>55.31700000000004</v>
+        <v>44.76999999999992</v>
       </c>
       <c r="H32" t="n">
-        <v>49.8</v>
+        <v>36.1</v>
       </c>
       <c r="I32" t="n">
-        <v>45.947</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1792.137754110706</v>
+        <v>-2109.608010921689</v>
       </c>
       <c r="K32" t="n">
         <v>122.459999</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>44.887</v>
+        <v>45.057</v>
       </c>
       <c r="H33" t="n">
         <v>49.8</v>
@@ -2296,7 +2296,7 @@
         <v>45.947</v>
       </c>
       <c r="J33" t="n">
-        <v>-3851.664555681622</v>
+        <v>-11011.54477405957</v>
       </c>
       <c r="K33" t="n">
         <v>136</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>41.71799999999999</v>
+        <v>42.093</v>
       </c>
       <c r="H34" t="n">
         <v>49.8</v>
@@ -2352,7 +2352,7 @@
         <v>42.7419999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>-4591.529950644969</v>
+        <v>-16173.39102089354</v>
       </c>
       <c r="K34" t="n">
         <v>134.699997</v>
@@ -2396,19 +2396,19 @@
         <v>0.2</v>
       </c>
       <c r="F35" t="n">
-        <v>21.2</v>
+        <v>49.8</v>
       </c>
       <c r="G35" t="n">
         <v>40.14499999999992</v>
       </c>
       <c r="H35" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>39.95699999999991</v>
+        <v>43.173</v>
       </c>
       <c r="J35" t="n">
-        <v>-2095.093546699999</v>
+        <v>-12055.68388513029</v>
       </c>
       <c r="K35" t="n">
         <v>123.129997</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>39.95800000000001</v>
+        <v>39.957</v>
       </c>
       <c r="J36" t="n">
-        <v>2443.94165514338</v>
+        <v>-12913.13321381859</v>
       </c>
       <c r="K36" t="n">
         <v>109.29999</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3621.286233698003</v>
+        <v>-10434.256382213</v>
       </c>
       <c r="K37" t="n">
         <v>99.19996999999999</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>57.28</v>
+        <v>60</v>
       </c>
       <c r="D38" t="n">
         <v>49.8</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>401.5466109104772</v>
+        <v>-8690.304225517226</v>
       </c>
       <c r="K38" t="n">
         <v>89.620003</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>57.28</v>
+        <v>60</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>40.69400000000002</v>
+        <v>40.691</v>
       </c>
       <c r="J39" t="n">
-        <v>2004.046772723715</v>
+        <v>-6905.166020611913</v>
       </c>
       <c r="K39" t="n">
         <v>88.480003</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.28</v>
+        <v>60</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>40.69400000000002</v>
+        <v>40.691</v>
       </c>
       <c r="J40" t="n">
-        <v>2248.257776291827</v>
+        <v>-4124.635929232649</v>
       </c>
       <c r="K40" t="n">
         <v>88.389999</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>57.28</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.69400000000002</v>
+        <v>40.694</v>
       </c>
       <c r="J41" t="n">
-        <v>3305.010730837777</v>
+        <v>-817.3874597758023</v>
       </c>
       <c r="K41" t="n">
         <v>89.91999800000001</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>40.244</v>
       </c>
       <c r="J42" t="n">
-        <v>2013.612789331507</v>
+        <v>3313.147763211401</v>
       </c>
       <c r="K42" t="n">
         <v>92.31999999999999</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.64099999999991</v>
+        <v>39.963</v>
       </c>
       <c r="H43" t="n">
         <v>49.8</v>
@@ -2856,7 +2856,7 @@
         <v>32.90499999999992</v>
       </c>
       <c r="J43" t="n">
-        <v>-1988.464073165928</v>
+        <v>-920.9344113615098</v>
       </c>
       <c r="K43" t="n">
         <v>119.10002</v>
@@ -2891,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1900000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1900000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>42.435</v>
+        <v>43.12</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>42.435</v>
+        <v>43.12</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>32.90499999999992</v>
       </c>
       <c r="J46" t="n">
-        <v>-818.8801394484545</v>
+        <v>-818.880139448455</v>
       </c>
       <c r="K46" t="n">
         <v>143.380005</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>43.425</v>
+        <v>43.461</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3080,7 +3080,7 @@
         <v>37.1219999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>-1063.562183087164</v>
+        <v>-1063.562183087169</v>
       </c>
       <c r="K47" t="n">
         <v>129.940002</v>
@@ -3121,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>53.325</v>
+        <v>43.461</v>
       </c>
       <c r="H48" t="n">
         <v>49.8</v>
@@ -3136,7 +3136,7 @@
         <v>42.31199999999995</v>
       </c>
       <c r="J48" t="n">
-        <v>-1190.016515065935</v>
+        <v>-1190.016515065931</v>
       </c>
       <c r="K48" t="n">
         <v>120.959999</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F49" t="n">
         <v>49.8</v>
@@ -3192,7 +3192,7 @@
         <v>43.218</v>
       </c>
       <c r="J49" t="n">
-        <v>4851.004463227994</v>
+        <v>4851.004463228</v>
       </c>
       <c r="K49" t="n">
         <v>117.860001</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>51.65600000000001</v>
+        <v>45.864</v>
       </c>
       <c r="J50" t="n">
-        <v>4638.750944329556</v>
+        <v>4638.750944329553</v>
       </c>
       <c r="K50" t="n">
         <v>115</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>6679.660974294751</v>
+        <v>6679.66097429475</v>
       </c>
       <c r="K51" t="n">
         <v>110</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>6542.111412320492</v>
+        <v>6542.11141232049</v>
       </c>
       <c r="K52" t="n">
         <v>106.620003</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>51.41300000000003</v>
+        <v>45.949</v>
       </c>
       <c r="J55" t="n">
-        <v>4766.685704216564</v>
+        <v>4391.919659884358</v>
       </c>
       <c r="K55" t="n">
         <v>114.940002</v>
@@ -3569,22 +3569,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>47.667</v>
+        <v>44.77299999999997</v>
       </c>
       <c r="H56" t="n">
-        <v>49.8</v>
+        <v>42.2</v>
       </c>
       <c r="I56" t="n">
-        <v>45.94899999999999</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-1694.138112416598</v>
+        <v>-2033.20968166771</v>
       </c>
       <c r="K56" t="n">
         <v>145</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>35.51400000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>-2562.351109539673</v>
+        <v>-6055.878933223818</v>
       </c>
       <c r="K57" t="n">
         <v>151.160004</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>35.51400000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>-8082.68030534745</v>
+        <v>-10855.66429735429</v>
       </c>
       <c r="K58" t="n">
         <v>149.960007</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
         <v>49.8</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>43.173</v>
+        <v>39.958</v>
       </c>
       <c r="J59" t="n">
-        <v>-7498.694199832175</v>
+        <v>-10189.08724333245</v>
       </c>
       <c r="K59" t="n">
         <v>138</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>43.17300000000002</v>
+        <v>39.958</v>
       </c>
       <c r="J60" t="n">
-        <v>-8050.955956092253</v>
+        <v>-13426.24742101551</v>
       </c>
       <c r="K60" t="n">
         <v>124.169998</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-6186.198186038876</v>
+        <v>-11610.65132679789</v>
       </c>
       <c r="K61" t="n">
         <v>109.459999</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>61</v>
+        <v>56.4</v>
       </c>
       <c r="D62" t="n">
         <v>49.8</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-8575.830725423448</v>
+        <v>-7943.714936266953</v>
       </c>
       <c r="K62" t="n">
         <v>106.29999</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>61</v>
+        <v>56.4</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>42.75100000000001</v>
+        <v>40.694</v>
       </c>
       <c r="J63" t="n">
-        <v>-9504.855061696167</v>
+        <v>-7388.755831541896</v>
       </c>
       <c r="K63" t="n">
         <v>103.10002</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>61</v>
+        <v>56.4</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>42.75100000000001</v>
+        <v>40.694</v>
       </c>
       <c r="J64" t="n">
-        <v>-4806.115139872201</v>
+        <v>-4740.248714072171</v>
       </c>
       <c r="K64" t="n">
         <v>103.93</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>61</v>
+        <v>56.4</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F65" t="n">
         <v>49.8</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>42.75100000000001</v>
+        <v>40.694</v>
       </c>
       <c r="J65" t="n">
-        <v>-3820.582273523708</v>
+        <v>-1027.551368226508</v>
       </c>
       <c r="K65" t="n">
         <v>109.80002</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F66" t="n">
         <v>49.8</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>42.846</v>
+        <v>40.244</v>
       </c>
       <c r="J66" t="n">
-        <v>86.08093230116238</v>
+        <v>3667.239990715517</v>
       </c>
       <c r="K66" t="n">
         <v>117.519997</v>
@@ -4188,19 +4188,19 @@
         <v>0.19</v>
       </c>
       <c r="F67" t="n">
-        <v>2.700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>39.64100000000001</v>
+        <v>41.865</v>
       </c>
       <c r="H67" t="n">
-        <v>47.1</v>
+        <v>49.8</v>
       </c>
       <c r="I67" t="n">
         <v>35.51400000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>-2028.348579989999</v>
+        <v>-897.5243099045357</v>
       </c>
       <c r="K67" t="n">
         <v>136.29999</v>
@@ -4241,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1900000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>39.91499999999998</v>
+        <v>41.865</v>
       </c>
       <c r="H68" t="n">
         <v>49.8</v>
@@ -4256,7 +4256,7 @@
         <v>35.51400000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>-816.9126533126936</v>
+        <v>-813.4045996351007</v>
       </c>
       <c r="K68" t="n">
         <v>149.75</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1900000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>35.51400000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>-868.0790369508574</v>
+        <v>-868.0790369508569</v>
       </c>
       <c r="K70" t="n">
         <v>152.360001</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>53.325</v>
+        <v>45.995</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4480,7 +4480,7 @@
         <v>35.51400000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>-1157.527105157761</v>
+        <v>-1157.527105157762</v>
       </c>
       <c r="K72" t="n">
         <v>125.10002</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>48.76000000000001</v>
+        <v>43.218</v>
       </c>
       <c r="J73" t="n">
         <v>4791.424127359929</v>
@@ -4592,7 +4592,7 @@
         <v>45.998</v>
       </c>
       <c r="J74" t="n">
-        <v>4714.653779430541</v>
+        <v>4714.653779430542</v>
       </c>
       <c r="K74" t="n">
         <v>94.779999</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>6676.410970646763</v>
+        <v>6676.410970646761</v>
       </c>
       <c r="K75" t="n">
         <v>92.910004</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>6567.683821385026</v>
+        <v>6567.683821385025</v>
       </c>
       <c r="K76" t="n">
         <v>91.209999</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>6500.969647572786</v>
+        <v>6532.850706936794</v>
       </c>
       <c r="K77" t="n">
         <v>90.89995999999999</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>46.045</v>
       </c>
       <c r="J79" t="n">
-        <v>4900.950466267866</v>
+        <v>4526.868769038636</v>
       </c>
       <c r="K79" t="n">
         <v>100.540001</v>
@@ -4907,28 +4907,28 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="G80" t="n">
-        <v>45.057</v>
+        <v>44.77299999999997</v>
       </c>
       <c r="H80" t="n">
-        <v>49.8</v>
+        <v>25.4</v>
       </c>
       <c r="I80" t="n">
         <v>45.947</v>
       </c>
       <c r="J80" t="n">
-        <v>-1534.65327141042</v>
+        <v>-2305.49570176</v>
       </c>
       <c r="K80" t="n">
         <v>118.699997</v>
@@ -4963,19 +4963,19 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>45.05699999999999</v>
+        <v>45.057</v>
       </c>
       <c r="H81" t="n">
         <v>49.8</v>
@@ -4984,7 +4984,7 @@
         <v>45.947</v>
       </c>
       <c r="J81" t="n">
-        <v>-2749.858640909583</v>
+        <v>-9726.041810205039</v>
       </c>
       <c r="K81" t="n">
         <v>135.440002</v>
@@ -5019,19 +5019,19 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>55</v>
+        <v>56.2</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>41.64299999999997</v>
+        <v>42.093</v>
       </c>
       <c r="H82" t="n">
         <v>49.8</v>
@@ -5040,7 +5040,7 @@
         <v>42.7419999999999</v>
       </c>
       <c r="J82" t="n">
-        <v>-3810.380177092119</v>
+        <v>-13958.03070376222</v>
       </c>
       <c r="K82" t="n">
         <v>140.720001</v>
@@ -5075,28 +5075,28 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>55</v>
+        <v>56.2</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>49.8</v>
       </c>
       <c r="G83" t="n">
-        <v>40.14599999999999</v>
+        <v>40.1459999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>39.95699999999999</v>
+        <v>40.018</v>
       </c>
       <c r="J83" t="n">
-        <v>-2021.480012959998</v>
+        <v>-12704.30496606375</v>
       </c>
       <c r="K83" t="n">
         <v>130</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>55</v>
+        <v>56.2</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5140,19 +5140,19 @@
         <v>0.18</v>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v>49.8</v>
       </c>
       <c r="G84" t="n">
-        <v>40.14599999999999</v>
+        <v>40.1459999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>39.95699999999999</v>
+        <v>40.018</v>
       </c>
       <c r="J84" t="n">
-        <v>-2021.48883786</v>
+        <v>-9387.576261374894</v>
       </c>
       <c r="K84" t="n">
         <v>116.989998</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>55</v>
+        <v>56.2</v>
       </c>
       <c r="D85" t="n">
         <v>49.8</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>5266.582193337792</v>
+        <v>-5181.765889111063</v>
       </c>
       <c r="K85" t="n">
         <v>109.75</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D86" t="n">
         <v>49.8</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4178.062911772637</v>
+        <v>-5136.832887582013</v>
       </c>
       <c r="K86" t="n">
         <v>103.879997</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>40.822</v>
       </c>
       <c r="J87" t="n">
-        <v>-601.4420052459407</v>
+        <v>-5658.775359669802</v>
       </c>
       <c r="K87" t="n">
         <v>98</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>40.822</v>
       </c>
       <c r="J88" t="n">
-        <v>-1868.880971731997</v>
+        <v>-2527.685931497879</v>
       </c>
       <c r="K88" t="n">
         <v>94.980003</v>
@@ -5411,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>60</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F89" t="n">
         <v>49.8</v>
@@ -5432,7 +5432,7 @@
         <v>40.822</v>
       </c>
       <c r="J89" t="n">
-        <v>-558.5328370635877</v>
+        <v>579.7061072577702</v>
       </c>
       <c r="K89" t="n">
         <v>95.59998</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F90" t="n">
         <v>49.8</v>
@@ -5488,7 +5488,7 @@
         <v>40.304</v>
       </c>
       <c r="J90" t="n">
-        <v>3481.617955417837</v>
+        <v>2702.746470737164</v>
       </c>
       <c r="K90" t="n">
         <v>97.610001</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>40.2419999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>-1657.901269948227</v>
+        <v>-1072.68672699465</v>
       </c>
       <c r="K91" t="n">
         <v>116.120003</v>
@@ -5600,7 +5600,7 @@
         <v>40.2419999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>-792.778732020861</v>
+        <v>-792.7787320208604</v>
       </c>
       <c r="K92" t="n">
         <v>131</v>
@@ -5656,7 +5656,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J93" t="n">
-        <v>-810.9195952296619</v>
+        <v>-810.9195952296629</v>
       </c>
       <c r="K93" t="n">
         <v>145.910004</v>
@@ -5712,7 +5712,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J94" t="n">
-        <v>-847.758426641733</v>
+        <v>-847.7584266417322</v>
       </c>
       <c r="K94" t="n">
         <v>144.929993</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>43.42499999999999</v>
+        <v>43.461</v>
       </c>
       <c r="H95" t="n">
         <v>49.8</v>
@@ -5824,7 +5824,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J96" t="n">
-        <v>-1122.607277048793</v>
+        <v>-1122.607277048794</v>
       </c>
       <c r="K96" t="n">
         <v>114.389999</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F97" t="n">
         <v>49.8</v>
@@ -5880,7 +5880,7 @@
         <v>43.346</v>
       </c>
       <c r="J97" t="n">
-        <v>4850.108660101841</v>
+        <v>4850.10866010184</v>
       </c>
       <c r="K97" t="n">
         <v>102.730003</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>6022.740788429294</v>
+        <v>6022.740788429293</v>
       </c>
       <c r="K101" t="n">
         <v>87.89995999999999</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>66</v>
+        <v>73.57000000000001</v>
       </c>
       <c r="D102" t="n">
         <v>49.8</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>6213.104207751134</v>
+        <v>6213.104207751133</v>
       </c>
       <c r="K102" t="n">
         <v>88.779999</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>66</v>
+        <v>73.57000000000001</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>45.949</v>
       </c>
       <c r="J103" t="n">
-        <v>4778.182719218978</v>
+        <v>4409.939686819731</v>
       </c>
       <c r="K103" t="n">
         <v>93.110001</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>66</v>
+        <v>73.57000000000001</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -6260,19 +6260,19 @@
         <v>0.18</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G104" t="n">
-        <v>47.65700000000001</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>49.8</v>
+        <v>43.3</v>
       </c>
       <c r="I104" t="n">
         <v>45.947</v>
       </c>
       <c r="J104" t="n">
-        <v>-1605.536855883977</v>
+        <v>-2212.22329824</v>
       </c>
       <c r="K104" t="n">
         <v>115</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>66</v>
+        <v>73.57000000000001</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>34.0929999999999</v>
+        <v>47.657</v>
       </c>
       <c r="H105" t="n">
         <v>49.8</v>
@@ -6328,7 +6328,7 @@
         <v>45.947</v>
       </c>
       <c r="J105" t="n">
-        <v>-3133.566042210412</v>
+        <v>-4402.054680111832</v>
       </c>
       <c r="K105" t="n">
         <v>134.460007</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>44.15700000000001</v>
+        <v>44.157</v>
       </c>
       <c r="H106" t="n">
         <v>49.8</v>
@@ -6384,7 +6384,7 @@
         <v>42.7419999999999</v>
       </c>
       <c r="J106" t="n">
-        <v>-6541.630020563005</v>
+        <v>-8268.600210201605</v>
       </c>
       <c r="K106" t="n">
         <v>137.20004</v>
@@ -6428,19 +6428,19 @@
         <v>0.2</v>
       </c>
       <c r="F107" t="n">
-        <v>49.8</v>
+        <v>29.5</v>
       </c>
       <c r="G107" t="n">
         <v>34.0929999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="I107" t="n">
-        <v>40.018</v>
+        <v>39.95699999999991</v>
       </c>
       <c r="J107" t="n">
-        <v>-2704.656078384528</v>
+        <v>-14515.78291337632</v>
       </c>
       <c r="K107" t="n">
         <v>135.839996</v>
@@ -6487,7 +6487,7 @@
         <v>49.8</v>
       </c>
       <c r="G108" t="n">
-        <v>41.993</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>39.958</v>
       </c>
       <c r="J108" t="n">
-        <v>-5174.557201381436</v>
+        <v>-14066.64666294201</v>
       </c>
       <c r="K108" t="n">
         <v>125.129997</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-2618.468631925199</v>
+        <v>-11950.77308655986</v>
       </c>
       <c r="K109" t="n">
         <v>116.190002</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>60</v>
+        <v>48.8</v>
       </c>
       <c r="D110" t="n">
         <v>49.8</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>476.8486956654384</v>
+        <v>-10214.45256596312</v>
       </c>
       <c r="K110" t="n">
         <v>113.610001</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>60</v>
+        <v>48.8</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>40.822</v>
+        <v>40.694</v>
       </c>
       <c r="J111" t="n">
-        <v>1568.829637540369</v>
+        <v>-5818.122547506346</v>
       </c>
       <c r="K111" t="n">
         <v>104.660004</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>60</v>
+        <v>48.8</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>40.69399999999999</v>
+        <v>40.694</v>
       </c>
       <c r="J112" t="n">
-        <v>-273.1483185896156</v>
+        <v>-4585.151774335835</v>
       </c>
       <c r="K112" t="n">
         <v>97.199997</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>60</v>
+        <v>48.8</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>40.69399999999999</v>
+        <v>40.694</v>
       </c>
       <c r="J113" t="n">
-        <v>1863.403280166243</v>
+        <v>-993.2083161387571</v>
       </c>
       <c r="K113" t="n">
         <v>95.239998</v>
@@ -6832,7 +6832,7 @@
         <v>40.244</v>
       </c>
       <c r="J114" t="n">
-        <v>2528.965597620414</v>
+        <v>2741.753369402375</v>
       </c>
       <c r="K114" t="n">
         <v>95.510002</v>
@@ -6876,19 +6876,19 @@
         <v>0.19</v>
       </c>
       <c r="F115" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>32.87</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I115" t="n">
-        <v>40.304</v>
+        <v>40.2419999999999</v>
       </c>
       <c r="J115" t="n">
-        <v>5065.956353696838</v>
+        <v>-982.4387883421747</v>
       </c>
       <c r="K115" t="n">
         <v>110.449997</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>41.86500000000001</v>
+        <v>41.865</v>
       </c>
       <c r="H116" t="n">
         <v>49.8</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>45.577</v>
+        <v>34.0929999999999</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7000,7 +7000,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J117" t="n">
-        <v>-936.4626424396846</v>
+        <v>-936.4626424396847</v>
       </c>
       <c r="K117" t="n">
         <v>134.70007</v>
@@ -7056,7 +7056,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J118" t="n">
-        <v>-936.3599392757118</v>
+        <v>-936.3599392757119</v>
       </c>
       <c r="K118" t="n">
         <v>134.899994</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>45.995</v>
+        <v>45.981</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7112,7 +7112,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J119" t="n">
-        <v>-1040.855319424272</v>
+        <v>-1040.855319424271</v>
       </c>
       <c r="K119" t="n">
         <v>121.580002</v>
@@ -7168,7 +7168,7 @@
         <v>43.218</v>
       </c>
       <c r="J120" t="n">
-        <v>5208.919423569037</v>
+        <v>5207.024327759737</v>
       </c>
       <c r="K120" t="n">
         <v>106.120003</v>
@@ -7224,7 +7224,7 @@
         <v>43.218</v>
       </c>
       <c r="J121" t="n">
-        <v>4899.188052968761</v>
+        <v>4897.658862574734</v>
       </c>
       <c r="K121" t="n">
         <v>99.99997999999999</v>
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>45.86400000000001</v>
+        <v>45.864</v>
       </c>
       <c r="J122" t="n">
-        <v>4539.212006134266</v>
+        <v>4539.212006134265</v>
       </c>
       <c r="K122" t="n">
         <v>98.410004</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>6543.630051775995</v>
+        <v>6543.630051775996</v>
       </c>
       <c r="K123" t="n">
         <v>96.839996</v>
@@ -7551,16 +7551,16 @@
         <v>49.8</v>
       </c>
       <c r="G127" t="n">
-        <v>44.773</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>45.94899999999997</v>
+        <v>45.949</v>
       </c>
       <c r="J127" t="n">
-        <v>4900.16332598706</v>
+        <v>4522.661839109488</v>
       </c>
       <c r="K127" t="n">
         <v>105.10002</v>
@@ -7601,22 +7601,22 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="G128" t="n">
-        <v>47.657</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>49.8</v>
+        <v>41.2</v>
       </c>
       <c r="I128" t="n">
         <v>45.947</v>
       </c>
       <c r="J128" t="n">
-        <v>-2113.386397362129</v>
+        <v>-2232.355226220001</v>
       </c>
       <c r="K128" t="n">
         <v>128.940002</v>
@@ -7657,22 +7657,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F129" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>34.06199999999998</v>
+        <v>44.773</v>
       </c>
       <c r="H129" t="n">
-        <v>36.1</v>
+        <v>49.8</v>
       </c>
       <c r="I129" t="n">
         <v>45.947</v>
       </c>
       <c r="J129" t="n">
-        <v>-2552.819178866681</v>
+        <v>-6496.685477970347</v>
       </c>
       <c r="K129" t="n">
         <v>150</v>
@@ -7713,22 +7713,22 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F130" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>34.06199999999995</v>
+        <v>44.157</v>
       </c>
       <c r="H130" t="n">
-        <v>49.80000000000023</v>
+        <v>49.8</v>
       </c>
       <c r="I130" t="n">
         <v>42.7419999999999</v>
       </c>
       <c r="J130" t="n">
-        <v>-8533.490856853381</v>
+        <v>-6790.365526498937</v>
       </c>
       <c r="K130" t="n">
         <v>146.380005</v>
@@ -7769,22 +7769,22 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>31.9</v>
       </c>
       <c r="G131" t="n">
         <v>34.06199999999995</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="I131" t="n">
-        <v>39.958</v>
+        <v>39.95699999999999</v>
       </c>
       <c r="J131" t="n">
-        <v>-5684.978865855192</v>
+        <v>-2076.20152476</v>
       </c>
       <c r="K131" t="n">
         <v>130.800003</v>
@@ -7828,19 +7828,19 @@
         <v>0.18</v>
       </c>
       <c r="F132" t="n">
-        <v>49.8</v>
+        <v>36.5</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="I132" t="n">
-        <v>39.958</v>
+        <v>39.95699999999999</v>
       </c>
       <c r="J132" t="n">
-        <v>-7148.581626962456</v>
+        <v>-1820.87364282</v>
       </c>
       <c r="K132" t="n">
         <v>118.919998</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-3682.833938607172</v>
+        <v>1855.427998926324</v>
       </c>
       <c r="K133" t="n">
         <v>113</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-3206.544041317529</v>
+        <v>3624.052070165124</v>
       </c>
       <c r="K134" t="n">
         <v>107.839996</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>40.69399999999999</v>
+        <v>40.694</v>
       </c>
       <c r="J135" t="n">
-        <v>-3229.207313815113</v>
+        <v>1956.502610171178</v>
       </c>
       <c r="K135" t="n">
         <v>100.989998</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>40.69399999999999</v>
+        <v>40.694</v>
       </c>
       <c r="J136" t="n">
-        <v>-2009.45260367102</v>
+        <v>1937.878160566838</v>
       </c>
       <c r="K136" t="n">
         <v>97.970001</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F137" t="n">
         <v>49.8</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>40.69399999999999</v>
+        <v>40.694</v>
       </c>
       <c r="J137" t="n">
-        <v>-2657.707489140623</v>
+        <v>3559.813136007779</v>
       </c>
       <c r="K137" t="n">
         <v>105.50003</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F138" t="n">
         <v>49.8</v>
@@ -8176,7 +8176,7 @@
         <v>40.244</v>
       </c>
       <c r="J138" t="n">
-        <v>-12.89041805535549</v>
+        <v>4102.813878061762</v>
       </c>
       <c r="K138" t="n">
         <v>112.440002</v>
@@ -8217,22 +8217,22 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F139" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>32.87</v>
+        <v>41.861</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I139" t="n">
-        <v>40.244</v>
+        <v>40.2419999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>4411.078645634851</v>
+        <v>-958.6860029935204</v>
       </c>
       <c r="K139" t="n">
         <v>122.660004</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>39.91499999999999</v>
+        <v>41.861</v>
       </c>
       <c r="H140" t="n">
         <v>49.8</v>
@@ -8288,7 +8288,7 @@
         <v>40.2419999999999</v>
       </c>
       <c r="J140" t="n">
-        <v>-829.0920656633642</v>
+        <v>-829.0920656633641</v>
       </c>
       <c r="K140" t="n">
         <v>138</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>45.569</v>
+        <v>42.336</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>43.21499999999997</v>
       </c>
       <c r="J141" t="n">
-        <v>-848.6938365183493</v>
+        <v>-848.6938365183452</v>
       </c>
       <c r="K141" t="n">
         <v>158.509995</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>45.569</v>
+        <v>42.336</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>43.21799999999999</v>
+        <v>43.218</v>
       </c>
       <c r="J145" t="n">
         <v>4585.508843761414</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>53.026</v>
+        <v>51.651</v>
       </c>
       <c r="J146" t="n">
         <v>4607.335657902741</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>52.09500000000003</v>
+        <v>51.409</v>
       </c>
       <c r="J151" t="n">
-        <v>4823.180163557541</v>
+        <v>4288.348384900907</v>
       </c>
       <c r="K151" t="n">
         <v>105.10002</v>
@@ -8948,19 +8948,19 @@
         <v>0.18</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="G152" t="n">
-        <v>44.773</v>
+        <v>44.76999999999992</v>
       </c>
       <c r="H152" t="n">
-        <v>49.8</v>
+        <v>19.9</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>-1758.173517475189</v>
+        <v>-2075.726786765767</v>
       </c>
       <c r="K152" t="n">
         <v>128.940002</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>48.72699999999992</v>
       </c>
       <c r="J153" t="n">
-        <v>-5725.017507825915</v>
+        <v>-13673.44062255858</v>
       </c>
       <c r="K153" t="n">
         <v>150</v>
@@ -9057,13 +9057,13 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>41.64299999999999</v>
+        <v>41.643</v>
       </c>
       <c r="H154" t="n">
         <v>49.8</v>
@@ -9072,7 +9072,7 @@
         <v>47.23499999999996</v>
       </c>
       <c r="J154" t="n">
-        <v>-10576.54691215525</v>
+        <v>-18360.70678861114</v>
       </c>
       <c r="K154" t="n">
         <v>146.380005</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>43.1699999999999</v>
       </c>
       <c r="J155" t="n">
-        <v>-12886.25415436015</v>
+        <v>-21414.06199610794</v>
       </c>
       <c r="K155" t="n">
         <v>130.800003</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F156" t="n">
         <v>49.8</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>43.16999999999999</v>
+        <v>43.17</v>
       </c>
       <c r="J156" t="n">
-        <v>-3330.501468189654</v>
+        <v>-15161.68942998018</v>
       </c>
       <c r="K156" t="n">
         <v>118.919998</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-4659.370000723803</v>
+        <v>-11475.02824095225</v>
       </c>
       <c r="K157" t="n">
         <v>113</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-4740.243287133649</v>
+        <v>-10760.38508992496</v>
       </c>
       <c r="K158" t="n">
         <v>107.839996</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>42.74799999999999</v>
+        <v>42.748</v>
       </c>
       <c r="J159" t="n">
-        <v>-6743.862711757608</v>
+        <v>-7080.654635613267</v>
       </c>
       <c r="K159" t="n">
         <v>100.989998</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>42.74799999999999</v>
+        <v>42.748</v>
       </c>
       <c r="J160" t="n">
-        <v>-5504.169878866449</v>
+        <v>-3305.367593982833</v>
       </c>
       <c r="K160" t="n">
         <v>97.970001</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>42.74799999999999</v>
+        <v>42.748</v>
       </c>
       <c r="J161" t="n">
-        <v>-783.830001811295</v>
+        <v>86.90872517225317</v>
       </c>
       <c r="K161" t="n">
         <v>105.50003</v>
@@ -9517,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>42.84399999999999</v>
+        <v>42.844</v>
       </c>
       <c r="J162" t="n">
-        <v>3063.351352548023</v>
+        <v>3816.875398315339</v>
       </c>
       <c r="K162" t="n">
         <v>112.440002</v>
@@ -9561,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>39.91499999999998</v>
+        <v>39.915</v>
       </c>
       <c r="H163" t="n">
         <v>49.8</v>
@@ -9576,7 +9576,7 @@
         <v>32.90499999999992</v>
       </c>
       <c r="J163" t="n">
-        <v>-1444.823157762666</v>
+        <v>-1113.680688263779</v>
       </c>
       <c r="K163" t="n">
         <v>122.660004</v>
@@ -9617,13 +9617,13 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1900000000000363</v>
+        <v>0.19</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>39.91499999999998</v>
+        <v>39.915</v>
       </c>
       <c r="H164" t="n">
         <v>49.8</v>
@@ -9673,13 +9673,13 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1900000000000637</v>
+        <v>0.19</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>42.33599999999998</v>
+        <v>42.336</v>
       </c>
       <c r="H165" t="n">
         <v>49.8</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>55.2</v>
+        <v>54.12</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>42.33599999999998</v>
+        <v>42.336</v>
       </c>
       <c r="H166" t="n">
         <v>49.8</v>
@@ -9779,19 +9779,19 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>55.2</v>
+        <v>54.12</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1699999999999091</v>
+        <v>0.1699999999999997</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>43.27400000000002</v>
+        <v>43.274</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9835,19 +9835,19 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>55.2</v>
+        <v>54.12</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>43.27400000000002</v>
+        <v>43.274</v>
       </c>
       <c r="H168" t="n">
         <v>49.8</v>
@@ -9891,13 +9891,13 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>55.2</v>
+        <v>54.12</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F169" t="n">
         <v>49.8</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>48.41299999999999</v>
+        <v>48.469</v>
       </c>
       <c r="J169" t="n">
         <v>4694.421556042464</v>
